--- a/UserInterfaceTestCases.xlsx
+++ b/UserInterfaceTestCases.xlsx
@@ -11,69 +11,318 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t>Test Scenario:</t>
   </si>
   <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Test Case ID:</t>
+  </si>
+  <si>
+    <t>Collaborators:</t>
+  </si>
+  <si>
+    <t>Sasha Thomas C. Daño</t>
+  </si>
+  <si>
+    <t>(STDano)</t>
+  </si>
+  <si>
+    <t>Test Case Description:</t>
+  </si>
+  <si>
+    <t>Test functions of Homepage</t>
+  </si>
+  <si>
+    <t>Test Priority:</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Romer Ryle B. Carreon</t>
+  </si>
+  <si>
+    <t>(Losen2133)</t>
+  </si>
+  <si>
+    <t>Pre-Requisite:</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Action:</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Actual Output</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Article Button</t>
+  </si>
+  <si>
+    <t>Click Article Button</t>
+  </si>
+  <si>
+    <t>Navigates to Article Page</t>
+  </si>
+  <si>
+    <t>Calculator Button</t>
+  </si>
+  <si>
+    <t>Click Calculator Button</t>
+  </si>
+  <si>
+    <t>Navigates to Calculator Page</t>
+  </si>
+  <si>
+    <t>Login Button</t>
+  </si>
+  <si>
+    <t>Click Login Button</t>
+  </si>
+  <si>
+    <t>Navigates to Login Page</t>
+  </si>
+  <si>
+    <t>Article Page</t>
+  </si>
+  <si>
+    <t>Test functions of Article Page</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Back To Home Button</t>
+  </si>
+  <si>
+    <t>Click Back To Home Button</t>
+  </si>
+  <si>
+    <t>Navigate Back To Home</t>
+  </si>
+  <si>
+    <t>Hamburger Button</t>
+  </si>
+  <si>
+    <t>Click Hamburger Button</t>
+  </si>
+  <si>
+    <t>Display Side-Menu</t>
+  </si>
+  <si>
+    <t>Side Menu</t>
+  </si>
+  <si>
+    <t>Drag screen from left to right</t>
+  </si>
+  <si>
+    <t>Drag &amp; Display Side-Menu</t>
+  </si>
+  <si>
+    <t>Test functions of Side Menu</t>
+  </si>
+  <si>
+    <t>Clicked the Hamburger Button</t>
+  </si>
+  <si>
+    <t>Home Button</t>
+  </si>
+  <si>
+    <t>Click Home Button</t>
+  </si>
+  <si>
+    <t>Close Menu Button</t>
+  </si>
+  <si>
+    <t>Click Close Menu Button</t>
+  </si>
+  <si>
+    <t>Closes Side-Menu</t>
+  </si>
+  <si>
+    <t>Navigates to Calculator</t>
+  </si>
+  <si>
+    <t>Menu W/ Header Button</t>
+  </si>
+  <si>
+    <t>Click Menu W/ Header Button</t>
+  </si>
+  <si>
+    <t>Navigates to Menu W/ Header Page</t>
+  </si>
+  <si>
+    <t>Search Button</t>
+  </si>
+  <si>
+    <t>Click Search Button</t>
+  </si>
+  <si>
+    <t>Navigates to Search Page</t>
+  </si>
+  <si>
     <t>Calculator</t>
   </si>
   <si>
-    <t>Test Case ID:</t>
-  </si>
-  <si>
-    <t>Collaborators:</t>
-  </si>
-  <si>
-    <t>Sasha Thomas C. Daño</t>
-  </si>
-  <si>
-    <t>(STDano)</t>
-  </si>
-  <si>
-    <t>Test Case Description:</t>
-  </si>
-  <si>
     <t>Test functions of Calculator</t>
   </si>
   <si>
-    <t>Test Priority:</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Romer Ryle B. Carreon</t>
-  </si>
-  <si>
-    <t>(Losen2133)</t>
-  </si>
-  <si>
-    <t>Pre-Requisite:</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Action:</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Expected Output</t>
-  </si>
-  <si>
-    <t>Actual Output</t>
-  </si>
-  <si>
-    <t>Test Result</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>Number Buttons</t>
+  </si>
+  <si>
+    <t>Clicks Number Buttons</t>
+  </si>
+  <si>
+    <t>Outputs corresponding number</t>
+  </si>
+  <si>
+    <t>C (Clear) Button</t>
+  </si>
+  <si>
+    <t>Click C Button</t>
+  </si>
+  <si>
+    <t>Clears Calculator Display</t>
+  </si>
+  <si>
+    <t>Change number sign</t>
+  </si>
+  <si>
+    <t>Click Postiive/Negative Button</t>
+  </si>
+  <si>
+    <t>Flips the sign of number to the other</t>
+  </si>
+  <si>
+    <t>Multiply current number by 100%</t>
+  </si>
+  <si>
+    <t>Click Percentage Button</t>
+  </si>
+  <si>
+    <t>Outputs value of number after multiplying by 100%</t>
+  </si>
+  <si>
+    <t>Perform Addition</t>
+  </si>
+  <si>
+    <t>9 + 10</t>
+  </si>
+  <si>
+    <t>Perform Subtraction</t>
+  </si>
+  <si>
+    <t>5 - 6</t>
+  </si>
+  <si>
+    <t>Perform Multiplication</t>
+  </si>
+  <si>
+    <t>7 * 4</t>
+  </si>
+  <si>
+    <t>Perform Division</t>
+  </si>
+  <si>
+    <t>1 / 3</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Test functions of Login</t>
+  </si>
+  <si>
+    <t>Valid Credentials</t>
+  </si>
+  <si>
+    <t>Login with default user</t>
+  </si>
+  <si>
+    <t>Username: default Password: 1234</t>
+  </si>
+  <si>
+    <t>Login Succesful! Thanks for coming, (username)</t>
+  </si>
+  <si>
+    <t>Login with user user</t>
+  </si>
+  <si>
+    <t>Username: user Password: password</t>
+  </si>
+  <si>
+    <t>Login with Sasha user</t>
+  </si>
+  <si>
+    <t>Username: Sasha Password: styd022503</t>
+  </si>
+  <si>
+    <t>Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Login with invalid username</t>
+  </si>
+  <si>
+    <t>Username: notdefault Password: 1234</t>
+  </si>
+  <si>
+    <t>Login Failed! Invalid username or password</t>
+  </si>
+  <si>
+    <t>Login with invalid password</t>
+  </si>
+  <si>
+    <t>Username: default Password: 4321</t>
+  </si>
+  <si>
+    <t>Search page</t>
+  </si>
+  <si>
+    <t>Test functions of Page</t>
+  </si>
+  <si>
+    <t>Search for multiple results</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user123, test_user</t>
+  </si>
+  <si>
+    <t>Search for specific result</t>
+  </si>
+  <si>
+    <t>alice_wonder</t>
+  </si>
+  <si>
+    <t>Search for non-existing result</t>
+  </si>
+  <si>
+    <t>romer</t>
+  </si>
+  <si>
+    <t>No users found</t>
   </si>
   <si>
     <t>Updates are made from Google Sheets and added to the repository</t>
@@ -110,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -119,6 +368,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -432,28 +684,52 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -468,26 +744,46 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -504,43 +800,81 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -549,26 +883,46 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.0</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -585,73 +939,143 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -666,26 +1090,46 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.0</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -702,82 +1146,160 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1">
+        <v>19.0</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-1.0</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="1">
+        <v>28.0</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -792,26 +1314,46 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5.0</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -828,37 +1370,75 @@
       <c r="G49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -873,26 +1453,46 @@
       <c r="G54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6.0</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -909,62 +1509,112 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="A59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="A61" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>7.0</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -981,37 +1631,75 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="A67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="A68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="A69" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="A70" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -9378,9 +10066,7 @@
       <c r="G999" s="2"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
       <c r="D1000" s="2"/>
@@ -9388,6 +10074,26 @@
       <c r="F1000" s="2"/>
       <c r="G1000" s="2"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
